--- a/example.xlsx
+++ b/example.xlsx
@@ -1,52 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carte\Desktop\CodingProjects\TimeSheet_Parser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A37E34F-DF1D-42C7-9569-86A05126E9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Carter Boyce</t>
+  </si>
+  <si>
+    <t>June 2022</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>In Time</t>
+  </si>
+  <si>
+    <t>Lunch/Break</t>
+  </si>
+  <si>
+    <t>Out Time</t>
+  </si>
+  <si>
+    <t>Additional Hours</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9B38A"/>
-        <bgColor rgb="00E9B38A"/>
+        <fgColor rgb="FFE9B38A"/>
+        <bgColor rgb="FFE9B38A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F7E4D7"/>
-        <bgColor rgb="00F7E4D7"/>
+        <fgColor rgb="FFF7E4D7"/>
+        <bgColor rgb="FFF7E4D7"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -55,136 +93,145 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="00000000"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="00000000"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="00000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="00000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -472,309 +519,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col min="2" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Carter Boyce</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>June 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>In Time</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Lunch/Break</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Out Time</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>Additional Hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="4" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="4" t="n">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="n">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="4" t="n">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="n">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="n">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="n">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="n">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="inlineStr"/>
-      <c r="D12" s="4" t="inlineStr"/>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="4" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="n">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="inlineStr"/>
-      <c r="D13" s="4" t="inlineStr"/>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="n">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="inlineStr"/>
-      <c r="D14" s="4" t="inlineStr"/>
-      <c r="E14" s="4" t="inlineStr"/>
-      <c r="F14" s="4" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="n">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4" t="n">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="4" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="4" t="n">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="4" t="n">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="4" t="n">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="4" t="inlineStr"/>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="4" t="n">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="4" t="n">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="inlineStr"/>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="4" t="n">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
         <v>18</v>
       </c>
-      <c r="C22" s="4" t="inlineStr"/>
-      <c r="D22" s="4" t="inlineStr"/>
-      <c r="E22" s="4" t="inlineStr"/>
-      <c r="F22" s="4" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="4" t="n">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
         <v>19</v>
       </c>
-      <c r="C23" s="4" t="inlineStr"/>
-      <c r="D23" s="4" t="inlineStr"/>
-      <c r="E23" s="4" t="inlineStr"/>
-      <c r="F23" s="4" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="4" t="n">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="inlineStr"/>
-      <c r="D24" s="4" t="inlineStr"/>
-      <c r="E24" s="4" t="inlineStr"/>
-      <c r="F24" s="4" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="4" t="n">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="4" t="n">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
         <v>22</v>
       </c>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="4" t="inlineStr"/>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="4" t="n">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
         <v>23</v>
       </c>
-      <c r="C27" s="4" t="inlineStr"/>
-      <c r="D27" s="4" t="inlineStr"/>
-      <c r="E27" s="4" t="inlineStr"/>
-      <c r="F27" s="4" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="4" t="n">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
         <v>24</v>
       </c>
-      <c r="C28" s="4" t="inlineStr"/>
-      <c r="D28" s="4" t="inlineStr"/>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="4" t="n">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
         <v>25</v>
       </c>
-      <c r="C29" s="4" t="inlineStr"/>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="4" t="n">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
         <v>26</v>
       </c>
-      <c r="C30" s="4" t="inlineStr"/>
-      <c r="D30" s="4" t="inlineStr"/>
-      <c r="E30" s="4" t="inlineStr"/>
-      <c r="F30" s="4" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="4" t="n">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
         <v>27</v>
       </c>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
